--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.8718952113484</v>
+        <v>91.20678233333332</v>
       </c>
       <c r="H2">
-        <v>84.8718952113484</v>
+        <v>273.620347</v>
       </c>
       <c r="I2">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323181</v>
       </c>
       <c r="J2">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323182</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N2">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q2">
-        <v>11538.91019751954</v>
+        <v>12965.80413480052</v>
       </c>
       <c r="R2">
-        <v>11538.91019751954</v>
+        <v>116692.2372132047</v>
       </c>
       <c r="S2">
-        <v>0.612799884790916</v>
+        <v>0.6206323115329725</v>
       </c>
       <c r="T2">
-        <v>0.612799884790916</v>
+        <v>0.6206323115329725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.8718952113484</v>
+        <v>91.20678233333332</v>
       </c>
       <c r="H3">
-        <v>84.8718952113484</v>
+        <v>273.620347</v>
       </c>
       <c r="I3">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323181</v>
       </c>
       <c r="J3">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323182</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N3">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q3">
-        <v>14.88251696414291</v>
+        <v>20.77073335659544</v>
       </c>
       <c r="R3">
-        <v>14.88251696414291</v>
+        <v>186.936600209359</v>
       </c>
       <c r="S3">
-        <v>0.0007903696731244257</v>
+        <v>0.0009942297539987618</v>
       </c>
       <c r="T3">
-        <v>0.0007903696731244257</v>
+        <v>0.0009942297539987618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.8718952113484</v>
+        <v>91.20678233333332</v>
       </c>
       <c r="H4">
-        <v>84.8718952113484</v>
+        <v>273.620347</v>
       </c>
       <c r="I4">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323181</v>
       </c>
       <c r="J4">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323182</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N4">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q4">
-        <v>345.8686861136742</v>
+        <v>417.4003603923487</v>
       </c>
       <c r="R4">
-        <v>345.8686861136742</v>
+        <v>3756.603243531138</v>
       </c>
       <c r="S4">
-        <v>0.01836813766423162</v>
+        <v>0.01997964397824715</v>
       </c>
       <c r="T4">
-        <v>0.01836813766423162</v>
+        <v>0.01997964397824715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>84.8718952113484</v>
+        <v>91.20678233333332</v>
       </c>
       <c r="H5">
-        <v>84.8718952113484</v>
+        <v>273.620347</v>
       </c>
       <c r="I5">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323181</v>
       </c>
       <c r="J5">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323182</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N5">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q5">
-        <v>178.6054960633402</v>
+        <v>231.0041299660539</v>
       </c>
       <c r="R5">
-        <v>178.6054960633402</v>
+        <v>2079.037169694485</v>
       </c>
       <c r="S5">
-        <v>0.00948524821990269</v>
+        <v>0.0110574419961883</v>
       </c>
       <c r="T5">
-        <v>0.00948524821990269</v>
+        <v>0.0110574419961883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>84.8718952113484</v>
+        <v>91.20678233333332</v>
       </c>
       <c r="H6">
-        <v>84.8718952113484</v>
+        <v>273.620347</v>
       </c>
       <c r="I6">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323181</v>
       </c>
       <c r="J6">
-        <v>0.641889868938737</v>
+        <v>0.6532435006323182</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N6">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P6">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q6">
-        <v>8.402403071306969</v>
+        <v>12.11429764533878</v>
       </c>
       <c r="R6">
-        <v>8.402403071306969</v>
+        <v>109.028678808049</v>
       </c>
       <c r="S6">
-        <v>0.0004462285905622697</v>
+        <v>0.0005798733709115009</v>
       </c>
       <c r="T6">
-        <v>0.0004462285905622697</v>
+        <v>0.0005798733709115008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.5328653081105</v>
+        <v>27.97197233333334</v>
       </c>
       <c r="H7">
-        <v>27.5328653081105</v>
+        <v>83.91591700000001</v>
       </c>
       <c r="I7">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="J7">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N7">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q7">
-        <v>3743.279910028546</v>
+        <v>3976.448957628787</v>
       </c>
       <c r="R7">
-        <v>3743.279910028546</v>
+        <v>35788.04061865909</v>
       </c>
       <c r="S7">
-        <v>0.1987953332108214</v>
+        <v>0.1903401194872363</v>
       </c>
       <c r="T7">
-        <v>0.1987953332108214</v>
+        <v>0.1903401194872363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.5328653081105</v>
+        <v>27.97197233333334</v>
       </c>
       <c r="H8">
-        <v>27.5328653081105</v>
+        <v>83.91591700000001</v>
       </c>
       <c r="I8">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="J8">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N8">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q8">
-        <v>4.827962589960246</v>
+        <v>6.370122527405446</v>
       </c>
       <c r="R8">
-        <v>4.827962589960246</v>
+        <v>57.33110274664901</v>
       </c>
       <c r="S8">
-        <v>0.0002563998565079811</v>
+        <v>0.0003049177534866972</v>
       </c>
       <c r="T8">
-        <v>0.0002563998565079811</v>
+        <v>0.0003049177534866972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.5328653081105</v>
+        <v>27.97197233333334</v>
       </c>
       <c r="H9">
-        <v>27.5328653081105</v>
+        <v>83.91591700000001</v>
       </c>
       <c r="I9">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="J9">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N9">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q9">
-        <v>112.2015235473101</v>
+        <v>128.0114376817687</v>
       </c>
       <c r="R9">
-        <v>112.2015235473101</v>
+        <v>1152.102939135918</v>
       </c>
       <c r="S9">
-        <v>0.005958715296868952</v>
+        <v>0.006127505370673834</v>
       </c>
       <c r="T9">
-        <v>0.005958715296868952</v>
+        <v>0.006127505370673833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.5328653081105</v>
+        <v>27.97197233333334</v>
       </c>
       <c r="H10">
-        <v>27.5328653081105</v>
+        <v>83.91591700000001</v>
       </c>
       <c r="I10">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="J10">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N10">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q10">
-        <v>57.94051204058271</v>
+        <v>70.84605954720389</v>
       </c>
       <c r="R10">
-        <v>57.94051204058271</v>
+        <v>637.6145359248351</v>
       </c>
       <c r="S10">
-        <v>0.003077061741136374</v>
+        <v>0.003391178305845992</v>
       </c>
       <c r="T10">
-        <v>0.003077061741136374</v>
+        <v>0.003391178305845991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.5328653081105</v>
+        <v>27.97197233333334</v>
       </c>
       <c r="H11">
-        <v>27.5328653081105</v>
+        <v>83.91591700000001</v>
       </c>
       <c r="I11">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="J11">
-        <v>0.2082322688814877</v>
+        <v>0.2003415607825798</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N11">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O11">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P11">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q11">
-        <v>2.725781384410696</v>
+        <v>3.715302633248779</v>
       </c>
       <c r="R11">
-        <v>2.725781384410696</v>
+        <v>33.437723699239</v>
       </c>
       <c r="S11">
-        <v>0.0001447587761529824</v>
+        <v>0.0001778398653369142</v>
       </c>
       <c r="T11">
-        <v>0.0001447587761529824</v>
+        <v>0.0001778398653369142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.8171350397756</v>
+        <v>20.442661</v>
       </c>
       <c r="H12">
-        <v>19.8171350397756</v>
+        <v>61.327983</v>
       </c>
       <c r="I12">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="J12">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N12">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q12">
-        <v>2694.27401175216</v>
+        <v>2906.094609844113</v>
       </c>
       <c r="R12">
-        <v>2694.27401175216</v>
+        <v>26154.85148859702</v>
       </c>
       <c r="S12">
-        <v>0.143085505973675</v>
+        <v>0.1391056194038993</v>
       </c>
       <c r="T12">
-        <v>0.143085505973675</v>
+        <v>0.1391056194038992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.8171350397756</v>
+        <v>20.442661</v>
       </c>
       <c r="H13">
-        <v>19.8171350397756</v>
+        <v>61.327983</v>
       </c>
       <c r="I13">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="J13">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N13">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q13">
-        <v>3.47498836541517</v>
+        <v>4.655454889072334</v>
       </c>
       <c r="R13">
-        <v>3.47498836541517</v>
+        <v>41.89909400165101</v>
       </c>
       <c r="S13">
-        <v>0.0001845471048413177</v>
+        <v>0.0002228420003112205</v>
       </c>
       <c r="T13">
-        <v>0.0001845471048413177</v>
+        <v>0.0002228420003112205</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.8171350397756</v>
+        <v>20.442661</v>
       </c>
       <c r="H14">
-        <v>19.8171350397756</v>
+        <v>61.327983</v>
       </c>
       <c r="I14">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="J14">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N14">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q14">
-        <v>80.75849421856627</v>
+        <v>93.55416176829802</v>
       </c>
       <c r="R14">
-        <v>80.75849421856627</v>
+        <v>841.9874559146821</v>
       </c>
       <c r="S14">
-        <v>0.004288862215399127</v>
+        <v>0.00447814382109527</v>
       </c>
       <c r="T14">
-        <v>0.004288862215399127</v>
+        <v>0.004478143821095269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.8171350397756</v>
+        <v>20.442661</v>
       </c>
       <c r="H15">
-        <v>19.8171350397756</v>
+        <v>61.327983</v>
       </c>
       <c r="I15">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="J15">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N15">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q15">
-        <v>41.70343110071206</v>
+        <v>51.77618371885167</v>
       </c>
       <c r="R15">
-        <v>41.70343110071206</v>
+        <v>465.985653469665</v>
       </c>
       <c r="S15">
-        <v>0.002214754889018536</v>
+        <v>0.002478363258437512</v>
       </c>
       <c r="T15">
-        <v>0.002214754889018536</v>
+        <v>0.002478363258437511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.8171350397756</v>
+        <v>20.442661</v>
       </c>
       <c r="H16">
-        <v>19.8171350397756</v>
+        <v>61.327983</v>
       </c>
       <c r="I16">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="J16">
-        <v>0.1498778621797754</v>
+        <v>0.146414938585102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N16">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O16">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P16">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q16">
-        <v>1.961916319979277</v>
+        <v>2.715241933562334</v>
       </c>
       <c r="R16">
-        <v>1.961916319979277</v>
+        <v>24.437177402061</v>
       </c>
       <c r="S16">
-        <v>0.0001041919968413622</v>
+        <v>0.0001299701013587752</v>
       </c>
       <c r="T16">
-        <v>0.0001041919968413622</v>
+        <v>0.0001299701013587751</v>
       </c>
     </row>
   </sheetData>
